--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Building large models 4.xlsx_with_dialog_acts.xlsx
@@ -741,12 +741,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1349,12 +1349,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2225,12 +2225,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2339,12 +2339,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2985,12 +2985,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3023,12 +3023,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4201,12 +4201,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4619,12 +4619,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5037,12 +5037,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5341,12 +5341,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5417,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5531,12 +5531,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5569,12 +5569,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5721,12 +5721,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5835,12 +5835,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6257,12 +6257,12 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7029,12 +7029,12 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7455,12 +7455,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8683,12 +8683,12 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8721,12 +8721,12 @@
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8835,12 +8835,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
